--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl12-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl12-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,10 +546,10 @@
         <v>0.846464</v>
       </c>
       <c r="I2">
-        <v>0.003251136722938652</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="J2">
-        <v>0.003251136722938651</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.011782</v>
+        <v>0.377371</v>
       </c>
       <c r="N2">
-        <v>0.035346</v>
+        <v>1.132113</v>
       </c>
       <c r="O2">
-        <v>0.02071678214087482</v>
+        <v>0.4698794580655765</v>
       </c>
       <c r="P2">
-        <v>0.02071678214087482</v>
+        <v>0.4698794580655764</v>
       </c>
       <c r="Q2">
-        <v>0.003324346282666666</v>
+        <v>0.1064769887146667</v>
       </c>
       <c r="R2">
-        <v>0.029919116544</v>
+        <v>0.9582928984319999</v>
       </c>
       <c r="S2">
-        <v>6.735309119931774E-05</v>
+        <v>0.002689120500191529</v>
       </c>
       <c r="T2">
-        <v>6.735309119931774E-05</v>
+        <v>0.002689120500191528</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.846464</v>
       </c>
       <c r="I3">
-        <v>0.003251136722938652</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="J3">
-        <v>0.003251136722938651</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>1.06804</v>
       </c>
       <c r="O3">
-        <v>0.6259930967504086</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="P3">
-        <v>0.6259930967504087</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="Q3">
-        <v>0.1004508233955555</v>
+        <v>0.1004508233955556</v>
       </c>
       <c r="R3">
-        <v>0.9040574105599999</v>
+        <v>0.9040574105600001</v>
       </c>
       <c r="S3">
-        <v>0.002035189145151342</v>
+        <v>0.002536927196335137</v>
       </c>
       <c r="T3">
-        <v>0.002035189145151342</v>
+        <v>0.002536927196335137</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.846464</v>
       </c>
       <c r="I4">
-        <v>0.003251136722938652</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="J4">
-        <v>0.003251136722938651</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,33 +682,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.07918166666666666</v>
+        <v>0.06973866666666667</v>
       </c>
       <c r="N4">
-        <v>0.237545</v>
+        <v>0.209216</v>
       </c>
       <c r="O4">
-        <v>0.139228427931141</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="P4">
-        <v>0.139228427931141</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="Q4">
-        <v>0.02234147676444444</v>
+        <v>0.01967709024711111</v>
       </c>
       <c r="R4">
-        <v>0.20107329088</v>
+        <v>0.177093812224</v>
       </c>
       <c r="S4">
-        <v>0.0004526506549239499</v>
+        <v>0.0004969530732074191</v>
       </c>
       <c r="T4">
-        <v>0.0004526506549239499</v>
+        <v>0.0004969530732074191</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -717,25 +717,25 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2821546666666667</v>
+        <v>30.199365</v>
       </c>
       <c r="H5">
-        <v>0.846464</v>
+        <v>90.598095</v>
       </c>
       <c r="I5">
-        <v>0.003251136722938652</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="J5">
-        <v>0.003251136722938651</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1217406666666667</v>
+        <v>0.377371</v>
       </c>
       <c r="N5">
-        <v>0.365222</v>
+        <v>1.132113</v>
       </c>
       <c r="O5">
-        <v>0.2140616931775755</v>
+        <v>0.4698794580655765</v>
       </c>
       <c r="P5">
-        <v>0.2140616931775755</v>
+        <v>0.4698794580655764</v>
       </c>
       <c r="Q5">
-        <v>0.03434969722311111</v>
+        <v>11.396364569415</v>
       </c>
       <c r="R5">
-        <v>0.309147275008</v>
+        <v>102.567281124735</v>
       </c>
       <c r="S5">
-        <v>0.000695943831664042</v>
+        <v>0.2878199126516894</v>
       </c>
       <c r="T5">
-        <v>0.000695943831664042</v>
+        <v>0.2878199126516894</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>55.96940366666666</v>
+        <v>30.199365</v>
       </c>
       <c r="H6">
-        <v>167.908211</v>
+        <v>90.598095</v>
       </c>
       <c r="I6">
-        <v>0.6449093533393406</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="J6">
-        <v>0.6449093533393405</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.011782</v>
+        <v>0.3560133333333333</v>
       </c>
       <c r="N6">
-        <v>0.035346</v>
+        <v>1.06804</v>
       </c>
       <c r="O6">
-        <v>0.02071678214087482</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="P6">
-        <v>0.02071678214087482</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="Q6">
-        <v>0.6594315140006666</v>
+        <v>10.7513765982</v>
       </c>
       <c r="R6">
-        <v>5.934883626005999</v>
+        <v>96.76238938380001</v>
       </c>
       <c r="S6">
-        <v>0.01336044657374358</v>
+        <v>0.2715304739973045</v>
       </c>
       <c r="T6">
-        <v>0.01336044657374358</v>
+        <v>0.2715304739973045</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,51 +850,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>55.96940366666666</v>
+        <v>30.199365</v>
       </c>
       <c r="H7">
-        <v>167.908211</v>
+        <v>90.598095</v>
       </c>
       <c r="I7">
-        <v>0.6449093533393406</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="J7">
-        <v>0.6449093533393405</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.3560133333333333</v>
+        <v>0.06973866666666667</v>
       </c>
       <c r="N7">
-        <v>1.06804</v>
+        <v>0.209216</v>
       </c>
       <c r="O7">
-        <v>0.6259930967504086</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="P7">
-        <v>0.6259930967504087</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="Q7">
-        <v>19.92585396404889</v>
+        <v>2.10606344928</v>
       </c>
       <c r="R7">
-        <v>179.33268567644</v>
+        <v>18.95457104352</v>
       </c>
       <c r="S7">
-        <v>0.4037088032201973</v>
+        <v>0.05318950568126667</v>
       </c>
       <c r="T7">
-        <v>0.4037088032201973</v>
+        <v>0.05318950568126667</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -903,7 +903,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>55.96940366666666</v>
+        <v>18.820355</v>
       </c>
       <c r="H8">
-        <v>167.908211</v>
+        <v>56.461065</v>
       </c>
       <c r="I8">
-        <v>0.6449093533393406</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="J8">
-        <v>0.6449093533393405</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.07918166666666666</v>
+        <v>0.377371</v>
       </c>
       <c r="N8">
-        <v>0.237545</v>
+        <v>1.132113</v>
       </c>
       <c r="O8">
-        <v>0.139228427931141</v>
+        <v>0.4698794580655765</v>
       </c>
       <c r="P8">
-        <v>0.139228427931141</v>
+        <v>0.4698794580655764</v>
       </c>
       <c r="Q8">
-        <v>4.431750664666111</v>
+        <v>7.102256186704999</v>
       </c>
       <c r="R8">
-        <v>39.885755981995</v>
+        <v>63.920305680345</v>
       </c>
       <c r="S8">
-        <v>0.08978971542352512</v>
+        <v>0.1793704249136956</v>
       </c>
       <c r="T8">
-        <v>0.08978971542352512</v>
+        <v>0.1793704249136955</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -965,7 +965,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>55.96940366666666</v>
+        <v>18.820355</v>
       </c>
       <c r="H9">
-        <v>167.908211</v>
+        <v>56.461065</v>
       </c>
       <c r="I9">
-        <v>0.6449093533393406</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="J9">
-        <v>0.6449093533393405</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1217406666666667</v>
+        <v>0.3560133333333333</v>
       </c>
       <c r="N9">
-        <v>0.365222</v>
+        <v>1.06804</v>
       </c>
       <c r="O9">
-        <v>0.2140616931775755</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="P9">
-        <v>0.2140616931775755</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="Q9">
-        <v>6.813752515315778</v>
+        <v>6.700297318066666</v>
       </c>
       <c r="R9">
-        <v>61.323772637842</v>
+        <v>60.3026758626</v>
       </c>
       <c r="S9">
-        <v>0.1380503881218746</v>
+        <v>0.1692187870158045</v>
       </c>
       <c r="T9">
-        <v>0.1380503881218746</v>
+        <v>0.1692187870158045</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,232 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30.53490766666667</v>
+        <v>18.820355</v>
       </c>
       <c r="H10">
-        <v>91.60472300000001</v>
+        <v>56.461065</v>
       </c>
       <c r="I10">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="J10">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.011782</v>
+        <v>0.06973866666666667</v>
       </c>
       <c r="N10">
-        <v>0.035346</v>
+        <v>0.209216</v>
       </c>
       <c r="O10">
-        <v>0.02071678214087482</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="P10">
-        <v>0.02071678214087482</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="Q10">
-        <v>0.3597622821286667</v>
+        <v>1.312506463893333</v>
       </c>
       <c r="R10">
-        <v>3.237860539158</v>
+        <v>11.81255817504</v>
       </c>
       <c r="S10">
-        <v>0.007288982475931923</v>
+        <v>0.03314789497050536</v>
       </c>
       <c r="T10">
-        <v>0.007288982475931923</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>30.53490766666667</v>
-      </c>
-      <c r="H11">
-        <v>91.60472300000001</v>
-      </c>
-      <c r="I11">
-        <v>0.3518395099377208</v>
-      </c>
-      <c r="J11">
-        <v>0.3518395099377208</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.3560133333333333</v>
-      </c>
-      <c r="N11">
-        <v>1.06804</v>
-      </c>
-      <c r="O11">
-        <v>0.6259930967504086</v>
-      </c>
-      <c r="P11">
-        <v>0.6259930967504087</v>
-      </c>
-      <c r="Q11">
-        <v>10.87083426143555</v>
-      </c>
-      <c r="R11">
-        <v>97.83750835292</v>
-      </c>
-      <c r="S11">
-        <v>0.22024910438506</v>
-      </c>
-      <c r="T11">
-        <v>0.22024910438506</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>30.53490766666667</v>
-      </c>
-      <c r="H12">
-        <v>91.60472300000001</v>
-      </c>
-      <c r="I12">
-        <v>0.3518395099377208</v>
-      </c>
-      <c r="J12">
-        <v>0.3518395099377208</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.07918166666666666</v>
-      </c>
-      <c r="N12">
-        <v>0.237545</v>
-      </c>
-      <c r="O12">
-        <v>0.139228427931141</v>
-      </c>
-      <c r="P12">
-        <v>0.139228427931141</v>
-      </c>
-      <c r="Q12">
-        <v>2.417804880559445</v>
-      </c>
-      <c r="R12">
-        <v>21.760243925035</v>
-      </c>
-      <c r="S12">
-        <v>0.04898606185269193</v>
-      </c>
-      <c r="T12">
-        <v>0.04898606185269193</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>30.53490766666667</v>
-      </c>
-      <c r="H13">
-        <v>91.60472300000001</v>
-      </c>
-      <c r="I13">
-        <v>0.3518395099377208</v>
-      </c>
-      <c r="J13">
-        <v>0.3518395099377208</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.1217406666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.365222</v>
-      </c>
-      <c r="O13">
-        <v>0.2140616931775755</v>
-      </c>
-      <c r="P13">
-        <v>0.2140616931775755</v>
-      </c>
-      <c r="Q13">
-        <v>3.717340015945111</v>
-      </c>
-      <c r="R13">
-        <v>33.456060143506</v>
-      </c>
-      <c r="S13">
-        <v>0.07531536122403693</v>
-      </c>
-      <c r="T13">
-        <v>0.07531536122403693</v>
+        <v>0.03314789497050536</v>
       </c>
     </row>
   </sheetData>
